--- a/Data/Excel/SkillEvent.xlsx
+++ b/Data/Excel/SkillEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13230"/>
+    <workbookView windowWidth="28695" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEvent" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,15 +122,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +151,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -167,14 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -183,15 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,9 +196,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +218,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -229,35 +242,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -274,187 +274,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,60 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,7 +483,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,8 +506,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1245,7 +1245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1256,9 +1256,12 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Data/Excel/SkillEvent.xlsx
+++ b/Data/Excel/SkillEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="3255"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEvent" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>id</t>
   </si>
@@ -96,10 +96,13 @@
     <t>Bullet</t>
   </si>
   <si>
+    <t>1|1|2.5</t>
+  </si>
+  <si>
+    <t>BulletReach</t>
+  </si>
+  <si>
     <t>1|2|2.5</t>
-  </si>
-  <si>
-    <t>BulletReach</t>
   </si>
 </sst>
 </file>
@@ -107,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,6 +124,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -128,11 +147,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,38 +238,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,76 +256,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +468,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,26 +521,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,21 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -550,21 +568,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,145 +576,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,6 +775,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1056,26 +1064,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="10.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.3796296296296" customWidth="1"/>
     <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.3833333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.3796296296296" customWidth="1"/>
     <col min="6" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="10.3796296296296" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1279,12 +1286,35 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1304,7 +1334,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1321,7 +1351,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/SkillEvent.xlsx
+++ b/Data/Excel/SkillEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEvent" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>id</t>
   </si>
@@ -102,7 +102,55 @@
     <t>BulletReach</t>
   </si>
   <si>
-    <t>1|2|2.5</t>
+    <t>2|1|2.5</t>
+  </si>
+  <si>
+    <t>3|1|2.5</t>
+  </si>
+  <si>
+    <t>ShowEffect</t>
+  </si>
+  <si>
+    <t>4|2</t>
+  </si>
+  <si>
+    <t>因为触发器triggerlogic也是相互独立的，所以triggerlogic的数据互通就要以triggerInfo作为中介。</t>
+  </si>
+  <si>
+    <t>举例，triggerlogic_bullet触发子弹，在子弹到达触发bulletreach，然后在子弹终点位置播放一个爆炸特效，播放特效的logic并不知道应该在哪里播放。</t>
+  </si>
+  <si>
+    <t>triggerData作为一个接口，所有数据均继承自triggerData，这样triggerInfo里面存储一个特定数据，无论多复杂，所有交互信息都可以放到这个triggerData里面。</t>
+  </si>
+  <si>
+    <t>Effect名字</t>
+  </si>
+  <si>
+    <t>参数含义</t>
+  </si>
+  <si>
+    <t>特效ID</t>
+  </si>
+  <si>
+    <t>运动类型</t>
+  </si>
+  <si>
+    <t>运动速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-直线 </t>
+  </si>
+  <si>
+    <t>2-曲线</t>
+  </si>
+  <si>
+    <t>显示位置</t>
+  </si>
+  <si>
+    <t>1-自身</t>
+  </si>
+  <si>
+    <t>2-目标位置</t>
   </si>
 </sst>
 </file>
@@ -110,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,9 +172,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,73 +189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,11 +219,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,21 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,19 +331,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,49 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,72 +487,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,30 +506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,17 +519,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,11 +560,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,17 +585,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,26 +606,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,139 +636,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1064,257 +1115,314 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.3796296296296" customWidth="1"/>
-    <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.3796296296296" customWidth="1"/>
-    <col min="6" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="10.3796296296296" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.3833333333333" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3833333333333" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1328,14 +1436,88 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1351,7 +1533,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/SkillEvent.xlsx
+++ b/Data/Excel/SkillEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>4|2</t>
+  </si>
+  <si>
+    <t>9|2|2.5</t>
+  </si>
+  <si>
+    <t>AreaDamage</t>
+  </si>
+  <si>
+    <t>10|2</t>
   </si>
   <si>
     <t>因为触发器triggerlogic也是相互独立的，所以triggerlogic的数据互通就要以triggerInfo作为中介。</t>
@@ -158,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -169,6 +178,126 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,113 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,22 +324,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -325,102 +334,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,42 +491,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,21 +538,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -554,15 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +576,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -608,11 +619,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,145 +633,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1423,6 +1432,58 @@
         <v>18</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1449,25 +1510,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1475,24 +1536,24 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1500,21 +1561,21 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/SkillEvent.xlsx
+++ b/Data/Excel/SkillEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="16860" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEvent" sheetId="1" r:id="rId1"/>
@@ -96,16 +96,16 @@
     <t>Bullet</t>
   </si>
   <si>
-    <t>1|1|2.5</t>
+    <t>1|1|300</t>
   </si>
   <si>
     <t>BulletReach</t>
   </si>
   <si>
-    <t>2|1|2.5</t>
-  </si>
-  <si>
-    <t>3|1|2.5</t>
+    <t>2|1|300</t>
+  </si>
+  <si>
+    <t>3|1|300</t>
   </si>
   <si>
     <t>ShowEffect</t>
@@ -114,7 +114,7 @@
     <t>4|2</t>
   </si>
   <si>
-    <t>9|2|2.5</t>
+    <t>9|2|150</t>
   </si>
   <si>
     <t>AreaDamage</t>
@@ -167,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -182,7 +182,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +243,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -213,7 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,51 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,23 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,9 +303,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,13 +334,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,18 +436,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,19 +454,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,91 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +525,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,6 +567,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -563,41 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,8 +620,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Data/Excel/SkillEvent.xlsx
+++ b/Data/Excel/SkillEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16860" windowHeight="2850"/>
+    <workbookView windowWidth="15255" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEvent" sheetId="1" r:id="rId1"/>
@@ -167,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -183,6 +183,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,29 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -334,6 +334,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -449,36 +479,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +525,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,15 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,21 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -633,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Data/Excel/SkillEvent.xlsx
+++ b/Data/Excel/SkillEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>id</t>
   </si>
@@ -105,22 +105,25 @@
     <t>2|1|300</t>
   </si>
   <si>
-    <t>3|1|300</t>
-  </si>
-  <si>
     <t>ShowEffect</t>
   </si>
   <si>
-    <t>4|2</t>
-  </si>
-  <si>
-    <t>9|2|150</t>
+    <t>3|2</t>
+  </si>
+  <si>
+    <t>4|1|300</t>
+  </si>
+  <si>
+    <t>5|2</t>
+  </si>
+  <si>
+    <t>10|2|150</t>
   </si>
   <si>
     <t>AreaDamage</t>
   </si>
   <si>
-    <t>10|2</t>
+    <t>11|2</t>
   </si>
   <si>
     <t>因为触发器triggerlogic也是相互独立的，所以triggerlogic的数据互通就要以triggerInfo作为中介。</t>
@@ -167,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -182,9 +185,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,67 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,56 +321,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -334,6 +337,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,60 +487,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,72 +494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,45 +528,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,26 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +569,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1363,7 +1366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1374,12 +1377,19 @@
         <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8"/>
+      <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1406,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1423,10 +1433,10 @@
         <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>18</v>
@@ -1458,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1472,13 +1482,13 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
@@ -1510,25 +1520,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1536,46 +1546,46 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/SkillEvent.xlsx
+++ b/Data/Excel/SkillEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="7320"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEvent" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,9 @@
     <t>triggerId</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>condName1</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>近战通用攻击</t>
+  </si>
+  <si>
     <t>SkillEvent</t>
   </si>
   <si>
@@ -93,6 +99,9 @@
     <t>end</t>
   </si>
   <si>
+    <t>箭塔通用射击</t>
+  </si>
+  <si>
     <t>Bullet</t>
   </si>
   <si>
@@ -102,6 +111,9 @@
     <t>BulletReach</t>
   </si>
   <si>
+    <t>魔法塔通用攻击</t>
+  </si>
+  <si>
     <t>2|1|300</t>
   </si>
   <si>
@@ -111,12 +123,27 @@
     <t>3|2</t>
   </si>
   <si>
+    <t>巫师塔攻击</t>
+  </si>
+  <si>
     <t>4|1|300</t>
   </si>
   <si>
     <t>5|2</t>
   </si>
   <si>
+    <t>大法师塔攻击</t>
+  </si>
+  <si>
+    <t>6|1|300</t>
+  </si>
+  <si>
+    <t>7|2</t>
+  </si>
+  <si>
+    <t>炮塔通用攻击</t>
+  </si>
+  <si>
     <t>10|2|150</t>
   </si>
   <si>
@@ -124,6 +151,12 @@
   </si>
   <si>
     <t>11|2</t>
+  </si>
+  <si>
+    <t>大炮塔攻击</t>
+  </si>
+  <si>
+    <t>磁暴塔攻击</t>
   </si>
   <si>
     <t>因为触发器triggerlogic也是相互独立的，所以triggerlogic的数据互通就要以triggerInfo作为中介。</t>
@@ -171,9 +204,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -185,7 +218,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,8 +276,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,49 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -282,47 +348,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,61 +370,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,121 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,41 +564,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,11 +588,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,11 +646,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,8 +656,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,34 +1160,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.3833333333333" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3833333333333" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.3796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3796296296296" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3796296296296" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,58 +1236,64 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1262,39 +1301,42 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1302,45 +1344,48 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1348,52 +1393,55 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8"/>
       <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1401,100 +1449,247 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>29</v>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>24</v>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1513,79 +1708,79 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1596,7 +1791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1604,7 +1799,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/SkillEvent.xlsx
+++ b/Data/Excel/SkillEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEvent" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>id</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>磁暴塔攻击</t>
+  </si>
+  <si>
+    <t>ConnectEffect</t>
   </si>
   <si>
     <t>因为触发器triggerlogic也是相互独立的，所以triggerlogic的数据互通就要以triggerInfo作为中介。</t>
@@ -204,9 +207,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -218,14 +221,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +250,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -254,7 +282,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,33 +328,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,37 +337,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,6 +351,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -370,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +564,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,6 +632,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -629,30 +656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -669,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,22 +1169,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.3796296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4416666666667" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3796296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3833333333333" style="1" customWidth="1"/>
     <col min="7" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3796296296296" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -1661,7 +1664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1683,13 +1686,17 @@
       <c r="I17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8</v>
+      <c r="J17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="1">
+        <v>17</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1708,32 +1715,32 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1741,24 +1748,24 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1766,21 +1773,21 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1806,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
